--- a/output/蛋卷/01_康力泉_trade_list.xlsx
+++ b/output/蛋卷/01_康力泉_trade_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="273">
   <si>
     <t>order_id</t>
   </si>
@@ -61,15 +61,15 @@
     <t>percent</t>
   </si>
   <si>
+    <t>volume</t>
+  </si>
+  <si>
     <t>target_code</t>
   </si>
   <si>
     <t>target_name</t>
   </si>
   <si>
-    <t>volume</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>4834262861802953806</t>
   </si>
   <si>
+    <t>4860005240065277958</t>
+  </si>
+  <si>
     <t>4860005250802689639</t>
   </si>
   <si>
-    <t>4860005240065277958</t>
-  </si>
-  <si>
     <t>4899699480823114538</t>
   </si>
   <si>
@@ -448,12 +448,33 @@
     <t>5346261135276434670</t>
   </si>
   <si>
+    <t>5509411409565358766</t>
+  </si>
+  <si>
     <t>5509411401243878394</t>
   </si>
   <si>
+    <t>5671496804158455102</t>
+  </si>
+  <si>
     <t>5671496796105387760</t>
   </si>
   <si>
+    <t>5819912028128592740</t>
+  </si>
+  <si>
+    <t>5834334857410419323</t>
+  </si>
+  <si>
+    <t>5858068661199210892</t>
+  </si>
+  <si>
+    <t>5858068664957328222</t>
+  </si>
+  <si>
+    <t>5996234750486949027</t>
+  </si>
+  <si>
     <t>CSI666</t>
   </si>
   <si>
@@ -806,6 +827,12 @@
   </si>
   <si>
     <t>282.09份</t>
+  </si>
+  <si>
+    <t>532.2份</t>
+  </si>
+  <si>
+    <t>56.91份</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:S135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,37 +1270,37 @@
         <v>203274561</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I2">
         <v>567.9</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L2" s="2">
         <v>43551.28679398148</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -1290,37 +1317,37 @@
         <v>203274561</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I3">
         <v>359.8</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L3" s="2">
         <v>43557.43540509259</v>
       </c>
       <c r="M3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -1337,37 +1364,37 @@
         <v>203274561</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I4">
         <v>264.3</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L4" s="2">
         <v>43564.37765046296</v>
       </c>
       <c r="M4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1384,37 +1411,37 @@
         <v>203274561</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I5">
         <v>356.6</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L5" s="2">
         <v>43571.37069444444</v>
       </c>
       <c r="M5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1431,37 +1458,37 @@
         <v>203274561</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I6">
         <v>357.7</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L6" s="2">
         <v>43578.37982638889</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1478,37 +1505,37 @@
         <v>203274561</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I7">
         <v>556.75</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L7" s="2">
         <v>43585.37966435185</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1525,37 +1552,37 @@
         <v>203274561</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I8">
         <v>612.8</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L8" s="2">
         <v>43592.37234953704</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1572,31 +1599,31 @@
         <v>203274561</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L9" s="2">
         <v>43599.31575231482</v>
       </c>
       <c r="M9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1613,37 +1640,37 @@
         <v>203274561</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I10">
         <v>613.7</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L10" s="2">
         <v>43599.37579861111</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1660,37 +1687,37 @@
         <v>203274561</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I11">
         <v>641.05</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L11" s="2">
         <v>43606.36675925926</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1707,37 +1734,37 @@
         <v>203274561</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I12">
         <v>417.52</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L12" s="2">
         <v>43606.3671875</v>
       </c>
       <c r="M12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1754,37 +1781,37 @@
         <v>203274561</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I13">
         <v>6.75</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L13" s="2">
         <v>43608.52180555555</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1804,37 +1831,37 @@
         <v>203274561</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I14">
         <v>629.4</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L14" s="2">
         <v>43613.45047453704</v>
       </c>
       <c r="M14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1851,37 +1878,37 @@
         <v>203274561</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I15">
         <v>624.4</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L15" s="2">
         <v>43620.37233796297</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1898,43 +1925,43 @@
         <v>203274561</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I16">
         <v>637.1</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L16" s="2">
         <v>43627.37438657408</v>
       </c>
       <c r="M16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1945,43 +1972,43 @@
         <v>203274561</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I17">
         <v>634.3</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L17" s="2">
         <v>43634.41928240741</v>
       </c>
       <c r="M17" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1992,34 +2019,34 @@
         <v>203274561</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L18" s="2">
         <v>43636.48012731481</v>
       </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -2027,11 +2054,11 @@
       <c r="P18">
         <v>68.31</v>
       </c>
-      <c r="S18">
+      <c r="Q18">
         <v>68.31</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2042,43 +2069,43 @@
         <v>203274561</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I19">
         <v>603</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L19" s="2">
         <v>43641.53734953704</v>
       </c>
       <c r="M19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2089,43 +2116,43 @@
         <v>203274561</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I20">
         <v>577.9</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L20" s="2">
         <v>43648.37431712963</v>
       </c>
       <c r="M20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2136,43 +2163,43 @@
         <v>203274561</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I21">
         <v>601.25</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L21" s="2">
         <v>43655.37605324074</v>
       </c>
       <c r="M21" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2183,43 +2210,43 @@
         <v>203274561</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I22">
         <v>588.8</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L22" s="2">
         <v>43662.37490740741</v>
       </c>
       <c r="M22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2230,43 +2257,43 @@
         <v>203274561</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I23">
         <v>602.3</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L23" s="2">
         <v>43669.37483796296</v>
       </c>
       <c r="M23" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2277,43 +2304,43 @@
         <v>203274561</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I24">
         <v>587.4</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L24" s="2">
         <v>43676.37715277778</v>
       </c>
       <c r="M24" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2324,43 +2351,43 @@
         <v>203274561</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I25">
         <v>636.1</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L25" s="2">
         <v>43683.37872685185</v>
       </c>
       <c r="M25" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2371,43 +2398,43 @@
         <v>203274561</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I26">
         <v>649.85</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L26" s="2">
         <v>43690.40802083333</v>
       </c>
       <c r="M26" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2418,43 +2445,43 @@
         <v>203274561</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I27">
         <v>622.7</v>
       </c>
       <c r="J27" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L27" s="2">
         <v>43697.37586805555</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2465,43 +2492,43 @@
         <v>203274561</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I28">
         <v>659.55</v>
       </c>
       <c r="J28" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L28" s="2">
         <v>43704.42096064815</v>
       </c>
       <c r="M28" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N28" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2512,34 +2539,34 @@
         <v>203274561</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L29" s="2">
         <v>43704.52287037037</v>
       </c>
       <c r="M29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N29" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2547,11 +2574,11 @@
       <c r="P29">
         <v>4.36</v>
       </c>
-      <c r="S29">
+      <c r="Q29">
         <v>4.36</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2562,43 +2589,43 @@
         <v>203274561</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I30">
         <v>620.35</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L30" s="2">
         <v>43711.37728009259</v>
       </c>
       <c r="M30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2609,43 +2636,43 @@
         <v>203274561</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I31">
         <v>586.85</v>
       </c>
       <c r="J31" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L31" s="2">
         <v>43718.36809027778</v>
       </c>
       <c r="M31" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N31" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2656,43 +2683,43 @@
         <v>203274561</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I32">
         <v>587.75</v>
       </c>
       <c r="J32" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L32" s="2">
         <v>43725.36890046296</v>
       </c>
       <c r="M32" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2703,43 +2730,43 @@
         <v>203274561</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I33">
         <v>605.35</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L33" s="2">
         <v>43732.38524305556</v>
       </c>
       <c r="M33" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2750,34 +2777,34 @@
         <v>203274561</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L34" s="2">
         <v>43733.60706018518</v>
       </c>
       <c r="M34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N34" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2785,11 +2812,11 @@
       <c r="P34">
         <v>247.54</v>
       </c>
-      <c r="S34">
+      <c r="Q34">
         <v>247.54</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2800,43 +2827,43 @@
         <v>203274561</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I35">
         <v>629.95</v>
       </c>
       <c r="J35" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L35" s="2">
         <v>43746.39876157408</v>
       </c>
       <c r="M35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N35" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2847,43 +2874,43 @@
         <v>203274561</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H36" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I36">
         <v>582.95</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L36" s="2">
         <v>43753.38429398148</v>
       </c>
       <c r="M36" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N36" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2894,43 +2921,43 @@
         <v>203274561</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I37">
         <v>599.35</v>
       </c>
       <c r="J37" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L37" s="2">
         <v>43760.37871527778</v>
       </c>
       <c r="M37" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N37" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2941,43 +2968,43 @@
         <v>203274561</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I38">
         <v>586.7</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L38" s="2">
         <v>43767.40380787037</v>
       </c>
       <c r="M38" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N38" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2988,43 +3015,43 @@
         <v>203274561</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I39">
         <v>587.75</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L39" s="2">
         <v>43774.38026620371</v>
       </c>
       <c r="M39" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N39" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3035,43 +3062,43 @@
         <v>203274561</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I40">
         <v>610.8</v>
       </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L40" s="2">
         <v>43781.39226851852</v>
       </c>
       <c r="M40" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N40" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3082,43 +3109,43 @@
         <v>203274561</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I41">
         <v>611.15</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K41" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L41" s="2">
         <v>43788.37980324074</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N41" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3129,43 +3156,43 @@
         <v>203274561</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I42">
         <v>50000</v>
       </c>
       <c r="J42" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L42" s="2">
         <v>43789.38494212963</v>
       </c>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N42" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3176,43 +3203,43 @@
         <v>203274561</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I43">
         <v>20000</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L43" s="2">
         <v>43789.38535879629</v>
       </c>
       <c r="M43" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N43" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3223,43 +3250,43 @@
         <v>203274561</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I44">
         <v>30000</v>
       </c>
       <c r="J44" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K44" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L44" s="2">
         <v>43790.30467592592</v>
       </c>
       <c r="M44" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N44" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3270,43 +3297,43 @@
         <v>203274561</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I45">
         <v>602.15</v>
       </c>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K45" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L45" s="2">
         <v>43795.38315972222</v>
       </c>
       <c r="M45" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N45" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3317,43 +3344,43 @@
         <v>203274561</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H46" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I46">
         <v>611.45</v>
       </c>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L46" s="2">
         <v>43802.37439814815</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N46" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3364,37 +3391,37 @@
         <v>203274561</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I47">
         <v>208.44</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L47" s="2">
         <v>43805.48046296297</v>
       </c>
       <c r="M47" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N47" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3403,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3414,43 +3441,43 @@
         <v>203274561</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I48">
         <v>208.44</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L48" s="2">
         <v>43806.24775462963</v>
       </c>
       <c r="M48" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N48" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3461,34 +3488,34 @@
         <v>203274561</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J49" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L49" s="2">
         <v>43808.52474537037</v>
       </c>
       <c r="M49" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N49" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3496,11 +3523,11 @@
       <c r="P49">
         <v>3.89</v>
       </c>
-      <c r="S49">
+      <c r="Q49">
         <v>3.89</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3511,43 +3538,43 @@
         <v>203274561</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I50">
         <v>609.6</v>
       </c>
       <c r="J50" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L50" s="2">
         <v>43809.38065972222</v>
       </c>
       <c r="M50" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N50" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3558,43 +3585,43 @@
         <v>203274561</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I51">
         <v>509.65</v>
       </c>
       <c r="J51" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L51" s="2">
         <v>43816.39515046297</v>
       </c>
       <c r="M51" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3605,43 +3632,43 @@
         <v>203274561</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I52">
         <v>509.8</v>
       </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L52" s="2">
         <v>43823.37813657407</v>
       </c>
       <c r="M52" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3652,43 +3679,43 @@
         <v>203274561</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I53">
         <v>405.85</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K53" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L53" s="2">
         <v>43830.37833333333</v>
       </c>
       <c r="M53" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N53" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3699,43 +3726,43 @@
         <v>203274561</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H54" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I54">
         <v>392.2</v>
       </c>
       <c r="J54" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L54" s="2">
         <v>43837.37070601852</v>
       </c>
       <c r="M54" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N54" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3746,43 +3773,43 @@
         <v>203274561</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I55">
         <v>384.45</v>
       </c>
       <c r="J55" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L55" s="2">
         <v>43844.37666666666</v>
       </c>
       <c r="M55" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N55" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3793,43 +3820,43 @@
         <v>203274561</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I56">
         <v>15000</v>
       </c>
       <c r="J56" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L56" s="2">
         <v>43845.65731481482</v>
       </c>
       <c r="M56" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N56" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3840,43 +3867,43 @@
         <v>203274561</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G57" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I57">
         <v>4000</v>
       </c>
       <c r="J57" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L57" s="2">
         <v>43848.31087962963</v>
       </c>
       <c r="M57" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N57" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3887,43 +3914,43 @@
         <v>203274561</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H58" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I58">
         <v>389.8</v>
       </c>
       <c r="J58" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L58" s="2">
         <v>43851.37233796297</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3934,43 +3961,43 @@
         <v>203274561</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G59" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H59" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I59">
         <v>4000</v>
       </c>
       <c r="J59" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L59" s="2">
         <v>43851.43571759259</v>
       </c>
       <c r="M59" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N59" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3981,43 +4008,43 @@
         <v>203274561</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G60" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I60">
         <v>2753.81</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K60" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L60" s="2">
         <v>43851.92931712963</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N60" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4028,43 +4055,43 @@
         <v>203274561</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I61">
         <v>800</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L61" s="2">
         <v>43851.93427083334</v>
       </c>
       <c r="M61" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N61" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4075,43 +4102,43 @@
         <v>203274561</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G62" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I62">
         <v>15000</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L62" s="2">
         <v>43851.95258101852</v>
       </c>
       <c r="M62" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N62" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4122,43 +4149,43 @@
         <v>203274561</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H63" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I63">
         <v>50000</v>
       </c>
       <c r="J63" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K63" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L63" s="2">
         <v>43864.445625</v>
       </c>
       <c r="M63" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N63" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4169,31 +4196,31 @@
         <v>203274561</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H64" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K64" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L64" s="2">
         <v>43864.44635416667</v>
       </c>
       <c r="M64" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O64" t="b">
         <v>0</v>
@@ -4213,37 +4240,37 @@
         <v>203274561</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H65" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I65">
         <v>631.1</v>
       </c>
       <c r="J65" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K65" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L65" s="2">
         <v>43865.37041666666</v>
       </c>
       <c r="M65" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="O65" t="b">
         <v>0</v>
@@ -4260,34 +4287,34 @@
         <v>203274561</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H66" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J66" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K66" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L66" s="2">
         <v>43865.38350694445</v>
       </c>
       <c r="M66" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N66" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
@@ -4307,37 +4334,37 @@
         <v>203274561</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G67" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H67" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I67">
         <v>50000</v>
       </c>
       <c r="J67" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K67" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L67" s="2">
         <v>43865.70826388889</v>
       </c>
       <c r="M67" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
@@ -4354,37 +4381,37 @@
         <v>203274561</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G68" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H68" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I68">
         <v>50000</v>
       </c>
       <c r="J68" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K68" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L68" s="2">
         <v>43865.80787037037</v>
       </c>
       <c r="M68" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N68" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O68" t="b">
         <v>0</v>
@@ -4401,37 +4428,37 @@
         <v>203274561</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H69" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I69">
         <v>10000</v>
       </c>
       <c r="J69" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K69" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L69" s="2">
         <v>43865.81167824074</v>
       </c>
       <c r="M69" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N69" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="O69" t="b">
         <v>0</v>
@@ -4448,37 +4475,37 @@
         <v>203274561</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G70" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H70" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I70">
         <v>15000</v>
       </c>
       <c r="J70" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K70" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L70" s="2">
         <v>43866.38157407408</v>
       </c>
       <c r="M70" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N70" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O70" t="b">
         <v>0</v>
@@ -4495,37 +4522,37 @@
         <v>203274561</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H71" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I71">
         <v>10000</v>
       </c>
       <c r="J71" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K71" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L71" s="2">
         <v>43867.38493055556</v>
       </c>
       <c r="M71" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N71" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="O71" t="b">
         <v>0</v>
@@ -4542,37 +4569,37 @@
         <v>203274561</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H72" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I72">
         <v>4770.78</v>
       </c>
       <c r="J72" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K72" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L72" s="2">
         <v>43867.38787037037</v>
       </c>
       <c r="M72" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O72" t="b">
         <v>0</v>
@@ -4589,34 +4616,34 @@
         <v>203274561</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G73" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H73" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J73" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K73" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L73" s="2">
         <v>43868.3555324074</v>
       </c>
       <c r="M73" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N73" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O73" t="b">
         <v>0</v>
@@ -4624,7 +4651,7 @@
       <c r="P73">
         <v>0.79</v>
       </c>
-      <c r="S73">
+      <c r="Q73">
         <v>0.79</v>
       </c>
     </row>
@@ -4639,37 +4666,37 @@
         <v>203274561</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G74" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I74">
         <v>507.79</v>
       </c>
       <c r="J74" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K74" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L74" s="2">
         <v>43868.37282407407</v>
       </c>
       <c r="M74" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O74" t="b">
         <v>0</v>
@@ -4686,31 +4713,31 @@
         <v>203274561</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G75" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H75" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K75" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L75" s="2">
         <v>43868.56269675926</v>
       </c>
       <c r="M75" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O75" t="b">
         <v>1</v>
@@ -4718,14 +4745,14 @@
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75" t="s">
-        <v>148</v>
+      <c r="Q75">
+        <v>10000.79</v>
       </c>
       <c r="R75" t="s">
-        <v>152</v>
-      </c>
-      <c r="S75">
-        <v>10000.79</v>
+        <v>155</v>
+      </c>
+      <c r="S75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -4739,37 +4766,37 @@
         <v>203274561</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H76" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I76">
         <v>531.87</v>
       </c>
       <c r="J76" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K76" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L76" s="2">
         <v>43872.39164351852</v>
       </c>
       <c r="M76" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N76" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O76" t="b">
         <v>0</v>
@@ -4786,34 +4813,34 @@
         <v>203274561</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G77" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J77" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K77" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L77" s="2">
         <v>43872.39164351852</v>
       </c>
       <c r="M77" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N77" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="O77" t="b">
         <v>0</v>
@@ -4833,37 +4860,37 @@
         <v>203274561</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G78" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H78" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I78">
         <v>471.59</v>
       </c>
       <c r="J78" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K78" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L78" s="2">
         <v>43875.39809027778</v>
       </c>
       <c r="M78" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N78" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O78" t="b">
         <v>0</v>
@@ -4880,37 +4907,37 @@
         <v>203274561</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G79" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I79">
         <v>373.65</v>
       </c>
       <c r="J79" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K79" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L79" s="2">
         <v>43879.39283564815</v>
       </c>
       <c r="M79" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N79" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
@@ -4927,31 +4954,31 @@
         <v>203274561</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G80" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H80" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J80" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K80" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L80" s="2">
         <v>43885.42320601852</v>
       </c>
       <c r="M80" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
@@ -4960,7 +4987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4971,43 +4998,43 @@
         <v>203274561</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G81" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H81" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I81">
         <v>376.25</v>
       </c>
       <c r="J81" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L81" s="2">
         <v>43886.4250462963</v>
       </c>
       <c r="M81" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N81" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5018,43 +5045,43 @@
         <v>203274561</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G82" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H82" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I82">
         <v>42851.6</v>
       </c>
       <c r="J82" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L82" s="2">
         <v>43888.5759837963</v>
       </c>
       <c r="M82" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N82" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5065,43 +5092,43 @@
         <v>203274561</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G83" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H83" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I83">
         <v>455.15</v>
       </c>
       <c r="J83" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K83" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L83" s="2">
         <v>43893.38952546296</v>
       </c>
       <c r="M83" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N83" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5112,43 +5139,43 @@
         <v>203274561</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H84" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I84">
         <v>483.65</v>
       </c>
       <c r="J84" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K84" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L84" s="2">
         <v>43900.37930555556</v>
       </c>
       <c r="M84" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5159,43 +5186,43 @@
         <v>203274561</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G85" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H85" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I85">
         <v>296.45</v>
       </c>
       <c r="J85" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K85" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L85" s="2">
         <v>43902.58702546296</v>
       </c>
       <c r="M85" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N85" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="O85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5206,31 +5233,31 @@
         <v>203274561</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G86" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H86" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J86" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K86" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L86" s="2">
         <v>43903.52373842592</v>
       </c>
       <c r="M86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O86" t="b">
         <v>0</v>
@@ -5239,7 +5266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5250,43 +5277,43 @@
         <v>203274561</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G87" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H87" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I87">
         <v>608.75</v>
       </c>
       <c r="J87" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K87" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L87" s="2">
         <v>43906.59474537037</v>
       </c>
       <c r="M87" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N87" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5297,31 +5324,31 @@
         <v>203274561</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G88" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H88" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J88" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K88" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L88" s="2">
         <v>43907.41672453703</v>
       </c>
       <c r="M88" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O88" t="b">
         <v>0</v>
@@ -5330,7 +5357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5341,43 +5368,43 @@
         <v>203274561</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G89" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H89" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I89">
         <v>235.05</v>
       </c>
       <c r="J89" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K89" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L89" s="2">
         <v>43908.59206018518</v>
       </c>
       <c r="M89" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N89" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5388,31 +5415,31 @@
         <v>203274561</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E90" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G90" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H90" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K90" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L90" s="2">
         <v>43909.43546296296</v>
       </c>
       <c r="M90" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O90" t="b">
         <v>0</v>
@@ -5421,7 +5448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5432,43 +5459,43 @@
         <v>203274561</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G91" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H91" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I91">
         <v>330.25</v>
       </c>
       <c r="J91" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K91" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L91" s="2">
         <v>43909.59775462963</v>
       </c>
       <c r="M91" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5479,31 +5506,31 @@
         <v>203274561</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G92" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H92" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J92" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K92" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L92" s="2">
         <v>43909.62270833334</v>
       </c>
       <c r="M92" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O92" t="b">
         <v>0</v>
@@ -5512,7 +5539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5523,43 +5550,43 @@
         <v>203274561</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G93" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H93" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I93">
         <v>680.9</v>
       </c>
       <c r="J93" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K93" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L93" s="2">
         <v>43913.60358796296</v>
       </c>
       <c r="M93" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N93" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5570,43 +5597,43 @@
         <v>203274561</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G94" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H94" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I94">
         <v>494.1</v>
       </c>
       <c r="J94" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K94" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L94" s="2">
         <v>43920.58378472222</v>
       </c>
       <c r="M94" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N94" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5617,31 +5644,31 @@
         <v>203274561</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F95" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G95" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H95" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J95" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K95" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L95" s="2">
         <v>43928.58873842593</v>
       </c>
       <c r="M95" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O95" t="b">
         <v>1</v>
@@ -5649,14 +5676,14 @@
       <c r="P95">
         <v>0</v>
       </c>
-      <c r="Q95" t="s">
-        <v>148</v>
-      </c>
       <c r="R95" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>155</v>
+      </c>
+      <c r="S95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5667,37 +5694,37 @@
         <v>203274561</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G96" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H96" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I96">
         <v>513.7</v>
       </c>
       <c r="J96" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K96" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L96" s="2">
         <v>43929.58004629629</v>
       </c>
       <c r="M96" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O96" t="b">
         <v>0</v>
@@ -5714,37 +5741,37 @@
         <v>203274561</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G97" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H97" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I97">
         <v>535.25</v>
       </c>
       <c r="J97" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K97" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L97" s="2">
         <v>43934.60045138889</v>
       </c>
       <c r="M97" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O97" t="b">
         <v>0</v>
@@ -5761,37 +5788,37 @@
         <v>203274561</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G98" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H98" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I98">
         <v>577.15</v>
       </c>
       <c r="J98" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K98" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L98" s="2">
         <v>43942.57902777778</v>
       </c>
       <c r="M98" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N98" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O98" t="b">
         <v>0</v>
@@ -5808,37 +5835,37 @@
         <v>203274561</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F99" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G99" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H99" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I99">
         <v>566.35</v>
       </c>
       <c r="J99" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K99" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L99" s="2">
         <v>43957.5114699074</v>
       </c>
       <c r="M99" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N99" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O99" t="b">
         <v>0</v>
@@ -5855,37 +5882,37 @@
         <v>203274561</v>
       </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F100" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G100" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H100" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I100">
         <v>560.65</v>
       </c>
       <c r="J100" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K100" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L100" s="2">
         <v>43963.50127314815</v>
       </c>
       <c r="M100" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N100" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O100" t="b">
         <v>0</v>
@@ -5902,37 +5929,37 @@
         <v>203274561</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H101" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I101">
         <v>566.25</v>
       </c>
       <c r="J101" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K101" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L101" s="2">
         <v>43970.5547337963</v>
       </c>
       <c r="M101" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N101" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="O101" t="b">
         <v>0</v>
@@ -5949,37 +5976,37 @@
         <v>203274561</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G102" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H102" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I102">
         <v>167.85</v>
       </c>
       <c r="J102" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K102" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L102" s="2">
         <v>43973.56983796296</v>
       </c>
       <c r="M102" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N102" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O102" t="b">
         <v>0</v>
@@ -5996,34 +6023,34 @@
         <v>203274561</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E103" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H103" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J103" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K103" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L103" s="2">
         <v>43977.39731481481</v>
       </c>
       <c r="M103" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N103" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O103" t="b">
         <v>0</v>
@@ -6031,7 +6058,7 @@
       <c r="P103">
         <v>494.11</v>
       </c>
-      <c r="S103">
+      <c r="Q103">
         <v>494.11</v>
       </c>
     </row>
@@ -6046,37 +6073,37 @@
         <v>203274561</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G104" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H104" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I104">
         <v>580.8</v>
       </c>
       <c r="J104" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K104" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L104" s="2">
         <v>43977.49697916667</v>
       </c>
       <c r="M104" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N104" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="O104" t="b">
         <v>0</v>
@@ -6093,34 +6120,34 @@
         <v>203274561</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F105" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G105" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H105" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J105" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K105" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L105" s="2">
         <v>43987.52255787037</v>
       </c>
       <c r="M105" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N105" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O105" t="b">
         <v>0</v>
@@ -6128,7 +6155,7 @@
       <c r="P105">
         <v>241.02</v>
       </c>
-      <c r="S105">
+      <c r="Q105">
         <v>241.02</v>
       </c>
     </row>
@@ -6143,31 +6170,31 @@
         <v>203274561</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G106" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H106" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J106" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K106" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L106" s="2">
         <v>43990.5594212963</v>
       </c>
       <c r="M106" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O106" t="b">
         <v>1</v>
@@ -6175,11 +6202,11 @@
       <c r="P106">
         <v>0</v>
       </c>
-      <c r="Q106" t="s">
-        <v>148</v>
-      </c>
       <c r="R106" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="S106" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -6193,34 +6220,34 @@
         <v>203274561</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H107" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J107" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K107" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L107" s="2">
         <v>43998.54923611111</v>
       </c>
       <c r="M107" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="O107" t="b">
         <v>0</v>
@@ -6240,34 +6267,34 @@
         <v>203274561</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G108" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H108" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J108" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K108" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L108" s="2">
         <v>44005.48123842593</v>
       </c>
       <c r="M108" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N108" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O108" t="b">
         <v>0</v>
@@ -6275,7 +6302,7 @@
       <c r="P108">
         <v>2.77</v>
       </c>
-      <c r="S108">
+      <c r="Q108">
         <v>2.77</v>
       </c>
     </row>
@@ -6290,34 +6317,34 @@
         <v>203274561</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G109" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H109" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J109" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K109" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L109" s="2">
         <v>44005.52950231481</v>
       </c>
       <c r="M109" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N109" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O109" t="b">
         <v>0</v>
@@ -6337,34 +6364,34 @@
         <v>203274561</v>
       </c>
       <c r="D110" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E110" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F110" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H110" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J110" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K110" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L110" s="2">
         <v>44012.53399305556</v>
       </c>
       <c r="M110" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N110" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="O110" t="b">
         <v>0</v>
@@ -6384,34 +6411,34 @@
         <v>203274561</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H111" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J111" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K111" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L111" s="2">
         <v>44019.47385416667</v>
       </c>
       <c r="M111" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N111" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O111" t="b">
         <v>0</v>
@@ -6431,43 +6458,43 @@
         <v>203274561</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G112" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H112" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I112">
         <v>500</v>
       </c>
       <c r="J112" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K112" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L112" s="2">
         <v>44019.47385416667</v>
       </c>
       <c r="M112" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N112" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6478,43 +6505,43 @@
         <v>203274561</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F113" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G113" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H113" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I113">
         <v>149916.06</v>
       </c>
       <c r="J113" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K113" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L113" s="2">
         <v>44025.41744212963</v>
       </c>
       <c r="M113" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N113" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6525,34 +6552,34 @@
         <v>203274561</v>
       </c>
       <c r="D114" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F114" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H114" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J114" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K114" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L114" s="2">
         <v>44026.53263888889</v>
       </c>
       <c r="M114" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N114" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="O114" t="b">
         <v>0</v>
@@ -6561,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6572,43 +6599,43 @@
         <v>203274561</v>
       </c>
       <c r="D115" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F115" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G115" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H115" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I115">
         <v>500</v>
       </c>
       <c r="J115" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K115" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L115" s="2">
         <v>44026.53263888889</v>
       </c>
       <c r="M115" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N115" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6619,34 +6646,34 @@
         <v>203274561</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F116" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G116" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H116" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J116" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K116" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L116" s="2">
         <v>44033.53815972222</v>
       </c>
       <c r="M116" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N116" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="O116" t="b">
         <v>0</v>
@@ -6655,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6666,43 +6693,43 @@
         <v>203274561</v>
       </c>
       <c r="D117" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F117" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G117" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H117" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I117">
         <v>500</v>
       </c>
       <c r="J117" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K117" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L117" s="2">
         <v>44033.53815972222</v>
       </c>
       <c r="M117" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N117" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6713,43 +6740,43 @@
         <v>203274561</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E118" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F118" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G118" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H118" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I118">
         <v>30000</v>
       </c>
       <c r="J118" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K118" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L118" s="2">
         <v>44039.43787037037</v>
       </c>
       <c r="M118" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N118" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6760,46 +6787,43 @@
         <v>203274561</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G119" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H119" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="I119">
+        <v>500</v>
       </c>
       <c r="J119" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K119" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L119" s="2">
         <v>44040.54780092592</v>
       </c>
       <c r="M119" t="s">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="N119" t="s">
+        <v>267</v>
       </c>
       <c r="O119" t="b">
-        <v>1</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>146</v>
-      </c>
-      <c r="R119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6810,43 +6834,46 @@
         <v>203274561</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F120" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G120" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H120" t="s">
-        <v>157</v>
-      </c>
-      <c r="I120">
-        <v>500</v>
+        <v>167</v>
       </c>
       <c r="J120" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K120" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L120" s="2">
         <v>44040.54780092592</v>
       </c>
       <c r="M120" t="s">
-        <v>150</v>
-      </c>
-      <c r="N120" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="O120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="R120" t="s">
+        <v>153</v>
+      </c>
+      <c r="S120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6857,31 +6884,31 @@
         <v>203274561</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F121" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H121" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J121" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K121" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L121" s="2">
         <v>44042.25928240741</v>
       </c>
       <c r="M121" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O121" t="b">
         <v>1</v>
@@ -6889,14 +6916,14 @@
       <c r="P121">
         <v>0</v>
       </c>
-      <c r="Q121" t="s">
-        <v>148</v>
-      </c>
       <c r="R121" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18">
+        <v>155</v>
+      </c>
+      <c r="S121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6907,31 +6934,31 @@
         <v>203274561</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F122" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G122" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J122" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K122" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L122" s="2">
         <v>44047.51914351852</v>
       </c>
       <c r="M122" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O122" t="b">
         <v>1</v>
@@ -6939,14 +6966,14 @@
       <c r="P122">
         <v>0</v>
       </c>
-      <c r="Q122" t="s">
-        <v>146</v>
-      </c>
       <c r="R122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
+        <v>153</v>
+      </c>
+      <c r="S122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6957,43 +6984,43 @@
         <v>203274561</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F123" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G123" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I123">
         <v>500</v>
       </c>
       <c r="J123" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K123" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L123" s="2">
         <v>44047.51914351852</v>
       </c>
       <c r="M123" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N123" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7004,31 +7031,31 @@
         <v>203274561</v>
       </c>
       <c r="D124" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E124" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G124" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J124" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K124" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L124" s="2">
         <v>44054.50287037037</v>
       </c>
       <c r="M124" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O124" t="b">
         <v>1</v>
@@ -7036,14 +7063,14 @@
       <c r="P124">
         <v>0</v>
       </c>
-      <c r="Q124" t="s">
-        <v>146</v>
-      </c>
       <c r="R124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+        <v>153</v>
+      </c>
+      <c r="S124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7054,43 +7081,43 @@
         <v>203274561</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F125" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G125" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I125">
         <v>500</v>
       </c>
       <c r="J125" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K125" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L125" s="2">
         <v>44054.50287037037</v>
       </c>
       <c r="M125" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N125" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7101,31 +7128,31 @@
         <v>203274561</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F126" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G126" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J126" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K126" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L126" s="2">
         <v>44061.51358796296</v>
       </c>
       <c r="M126" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O126" t="b">
         <v>1</v>
@@ -7133,14 +7160,14 @@
       <c r="P126">
         <v>0</v>
       </c>
-      <c r="Q126" t="s">
-        <v>146</v>
-      </c>
       <c r="R126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18">
+        <v>153</v>
+      </c>
+      <c r="S126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7151,43 +7178,46 @@
         <v>203274561</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G127" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H127" t="s">
-        <v>157</v>
-      </c>
-      <c r="I127">
-        <v>500</v>
+        <v>167</v>
       </c>
       <c r="J127" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K127" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L127" s="2">
         <v>44068.54810185185</v>
       </c>
       <c r="M127" t="s">
-        <v>150</v>
-      </c>
-      <c r="N127" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="O127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="R127" t="s">
+        <v>153</v>
+      </c>
+      <c r="S127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7198,39 +7228,380 @@
         <v>203274561</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F128" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G128" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I128">
         <v>500</v>
       </c>
       <c r="J128" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K128" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L128" s="2">
+        <v>44068.54810185185</v>
+      </c>
+      <c r="M128" t="s">
+        <v>157</v>
+      </c>
+      <c r="N128" t="s">
+        <v>267</v>
+      </c>
+      <c r="O128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129">
+        <v>203274561</v>
+      </c>
+      <c r="D129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" t="s">
+        <v>157</v>
+      </c>
+      <c r="F129" t="s">
+        <v>161</v>
+      </c>
+      <c r="G129" t="s">
+        <v>163</v>
+      </c>
+      <c r="H129" t="s">
+        <v>167</v>
+      </c>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+      <c r="K129" t="s">
+        <v>172</v>
+      </c>
+      <c r="L129" s="2">
         <v>44075.53670138889</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M129" t="s">
+        <v>175</v>
+      </c>
+      <c r="O129" t="b">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="R129" t="s">
+        <v>153</v>
+      </c>
+      <c r="S129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>147</v>
+      </c>
+      <c r="C130">
+        <v>203274561</v>
+      </c>
+      <c r="D130" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" t="s">
+        <v>157</v>
+      </c>
+      <c r="F130" t="s">
+        <v>161</v>
+      </c>
+      <c r="G130" t="s">
+        <v>163</v>
+      </c>
+      <c r="H130" t="s">
+        <v>164</v>
+      </c>
+      <c r="I130">
+        <v>500</v>
+      </c>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+      <c r="K130" t="s">
+        <v>169</v>
+      </c>
+      <c r="L130" s="2">
+        <v>44075.53670138889</v>
+      </c>
+      <c r="M130" t="s">
+        <v>157</v>
+      </c>
+      <c r="N130" t="s">
+        <v>267</v>
+      </c>
+      <c r="O130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>148</v>
+      </c>
+      <c r="C131">
+        <v>203274561</v>
+      </c>
+      <c r="D131" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" t="s">
+        <v>161</v>
+      </c>
+      <c r="G131" t="s">
+        <v>163</v>
+      </c>
+      <c r="H131" t="s">
+        <v>167</v>
+      </c>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+      <c r="K131" t="s">
+        <v>172</v>
+      </c>
+      <c r="L131" s="2">
+        <v>44081.93589120371</v>
+      </c>
+      <c r="M131" t="s">
+        <v>174</v>
+      </c>
+      <c r="O131" t="b">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="R131" t="s">
+        <v>155</v>
+      </c>
+      <c r="S131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132">
+        <v>203274561</v>
+      </c>
+      <c r="D132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" t="s">
+        <v>157</v>
+      </c>
+      <c r="F132" t="s">
+        <v>161</v>
+      </c>
+      <c r="G132" t="s">
+        <v>163</v>
+      </c>
+      <c r="H132" t="s">
+        <v>164</v>
+      </c>
+      <c r="I132">
+        <v>500</v>
+      </c>
+      <c r="J132" t="s">
+        <v>168</v>
+      </c>
+      <c r="K132" t="s">
+        <v>169</v>
+      </c>
+      <c r="L132" s="2">
+        <v>44082.55775462963</v>
+      </c>
+      <c r="M132" t="s">
+        <v>157</v>
+      </c>
+      <c r="N132" t="s">
+        <v>267</v>
+      </c>
+      <c r="O132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
         <v>150</v>
       </c>
-      <c r="N128" t="s">
-        <v>260</v>
-      </c>
-      <c r="O128" t="b">
+      <c r="C133">
+        <v>203274561</v>
+      </c>
+      <c r="D133" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" t="s">
+        <v>159</v>
+      </c>
+      <c r="F133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G133" t="s">
+        <v>163</v>
+      </c>
+      <c r="H133" t="s">
+        <v>166</v>
+      </c>
+      <c r="J133" t="s">
+        <v>168</v>
+      </c>
+      <c r="K133" t="s">
+        <v>171</v>
+      </c>
+      <c r="L133" s="2">
+        <v>44083.58108796296</v>
+      </c>
+      <c r="M133" t="s">
+        <v>159</v>
+      </c>
+      <c r="N133" t="s">
+        <v>271</v>
+      </c>
+      <c r="O133" t="b">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>532.2</v>
+      </c>
+      <c r="Q133">
+        <v>532.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>151</v>
+      </c>
+      <c r="C134">
+        <v>203274561</v>
+      </c>
+      <c r="D134" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134" t="s">
+        <v>161</v>
+      </c>
+      <c r="G134" t="s">
+        <v>163</v>
+      </c>
+      <c r="H134" t="s">
+        <v>166</v>
+      </c>
+      <c r="J134" t="s">
+        <v>168</v>
+      </c>
+      <c r="K134" t="s">
+        <v>171</v>
+      </c>
+      <c r="L134" s="2">
+        <v>44083.58108796296</v>
+      </c>
+      <c r="M134" t="s">
+        <v>157</v>
+      </c>
+      <c r="N134" t="s">
+        <v>272</v>
+      </c>
+      <c r="O134" t="b">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>56.91</v>
+      </c>
+      <c r="Q134">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135">
+        <v>203274561</v>
+      </c>
+      <c r="D135" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" t="s">
+        <v>157</v>
+      </c>
+      <c r="F135" t="s">
+        <v>161</v>
+      </c>
+      <c r="G135" t="s">
+        <v>163</v>
+      </c>
+      <c r="H135" t="s">
+        <v>164</v>
+      </c>
+      <c r="I135">
+        <v>500</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+      <c r="K135" t="s">
+        <v>169</v>
+      </c>
+      <c r="L135" s="2">
+        <v>44089.53836805555</v>
+      </c>
+      <c r="M135" t="s">
+        <v>157</v>
+      </c>
+      <c r="N135" t="s">
+        <v>267</v>
+      </c>
+      <c r="O135" t="b">
         <v>0</v>
       </c>
     </row>
